--- a/static/new.xlsx
+++ b/static/new.xlsx
@@ -944,7 +944,7 @@
       <c r="D4" s="56" t="n"/>
       <c r="E4" s="57" t="n"/>
       <c r="F4" s="64" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G4" s="56" t="n"/>
       <c r="H4" s="57" t="n"/>
@@ -1255,10 +1255,10 @@
         <v>0.18</v>
       </c>
       <c r="H27" s="76" t="n">
-        <v>3456</v>
+        <v>321</v>
       </c>
       <c r="I27" s="78" t="n">
-        <v>43</v>
+        <v>323</v>
       </c>
       <c r="J27" s="79" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="K27" s="78" t="n">
-        <v>148608</v>
+        <v>103683</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1" s="54">
@@ -1577,12 +1577,12 @@
       <c r="F51" s="76" t="n"/>
       <c r="G51" s="77" t="n"/>
       <c r="H51" s="76" t="n">
-        <v>3456</v>
+        <v>321</v>
       </c>
       <c r="I51" s="76" t="n"/>
       <c r="J51" s="76" t="n"/>
       <c r="K51" s="88" t="n">
-        <v>148608</v>
+        <v>103683</v>
       </c>
     </row>
     <row r="52" ht="17.25" customHeight="1" s="54">
@@ -1625,7 +1625,7 @@
       <c r="I53" s="76" t="n"/>
       <c r="J53" s="76" t="n"/>
       <c r="K53" s="88" t="n">
-        <v>13374.72</v>
+        <v>9331.469999999999</v>
       </c>
     </row>
     <row r="54" ht="18" customHeight="1" s="54">
@@ -1646,7 +1646,7 @@
       <c r="I54" s="76" t="n"/>
       <c r="J54" s="76" t="n"/>
       <c r="K54" s="88" t="n">
-        <v>13374.72</v>
+        <v>9331.469999999999</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1" s="54">
@@ -1679,18 +1679,18 @@
       <c r="F56" s="90" t="n"/>
       <c r="G56" s="90" t="n"/>
       <c r="H56" s="76" t="n">
-        <v>3456</v>
+        <v>321</v>
       </c>
       <c r="I56" s="90" t="n"/>
       <c r="J56" s="90" t="n"/>
       <c r="K56" s="92" t="n">
-        <v>175357.44</v>
+        <v>122345.94</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1" s="54">
       <c r="A57" s="76" t="inlineStr">
         <is>
-          <t>ONE LAKH, SEVENTY-FIVE THOUSAND, THREE HUNDRED AND FIFTY-SEVEN RUPEES, FORTY-FOUR PAISA</t>
+          <t>ONE LAKH, TWENTY-TWO THOUSAND, THREE HUNDRED AND FORTY-FIVE RUPEES, NINETY-FOUR PAISA</t>
         </is>
       </c>
       <c r="B57" s="56" t="n"/>
@@ -1819,20 +1819,20 @@
       <c r="C63" s="59" t="n"/>
       <c r="D63" s="60" t="n"/>
       <c r="E63" s="78" t="n">
-        <v>148608</v>
+        <v>103683</v>
       </c>
       <c r="F63" s="60" t="n"/>
       <c r="G63" s="100" t="n">
         <v>0.09</v>
       </c>
       <c r="H63" s="101" t="n">
-        <v>13374.72</v>
+        <v>9331.469999999999</v>
       </c>
       <c r="I63" s="102" t="n">
         <v>0.09</v>
       </c>
       <c r="J63" s="103" t="n">
-        <v>13374.72</v>
+        <v>9331.469999999999</v>
       </c>
       <c r="K63" s="64" t="n"/>
     </row>
@@ -1849,20 +1849,20 @@
       <c r="F64" s="60" t="n"/>
       <c r="G64" s="64" t="n"/>
       <c r="H64" s="101" t="n">
-        <v>13374.72</v>
+        <v>9331.469999999999</v>
       </c>
       <c r="I64" s="64" t="n"/>
       <c r="J64" s="101" t="n">
-        <v>13374.72</v>
+        <v>9331.469999999999</v>
       </c>
       <c r="K64" s="104" t="n">
-        <v>26749.44</v>
+        <v>18662.94</v>
       </c>
     </row>
     <row r="65" ht="14.9" customHeight="1" s="54">
       <c r="A65" s="83" t="inlineStr">
         <is>
-          <t>TWENTY-SIX THOUSAND, SEVEN HUNDRED AND FORTY-NINE RUPEES, FORTY-FOUR PAISA</t>
+          <t>EIGHTEEN THOUSAND, SIX HUNDRED AND SIXTY-TWO RUPEES, NINETY-FOUR PAISA</t>
         </is>
       </c>
       <c r="B65" s="56" t="n"/>

--- a/static/new.xlsx
+++ b/static/new.xlsx
@@ -944,7 +944,7 @@
       <c r="D4" s="56" t="n"/>
       <c r="E4" s="57" t="n"/>
       <c r="F4" s="64" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="G4" s="56" t="n"/>
       <c r="H4" s="57" t="n"/>
